--- a/Tables/Telework_degurba.xlsx
+++ b/Tables/Telework_degurba.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,13 +455,13 @@
         <v>2020</v>
       </c>
       <c r="D4">
-        <v>0.2595194991521685</v>
+        <v>0.2593600237201766</v>
       </c>
       <c r="E4">
-        <v>0.1816416357673057</v>
+        <v>0.1815862060489565</v>
       </c>
       <c r="F4">
-        <v>0.1608933493646525</v>
+        <v>0.1608398167440892</v>
       </c>
     </row>
     <row r="5">
@@ -479,37 +479,37 @@
         <v>2021</v>
       </c>
       <c r="D5">
-        <v>0.3052116873661914</v>
+        <v>0.3053703445575127</v>
       </c>
       <c r="E5">
-        <v>0.208470751509941</v>
+        <v>0.2090799571479948</v>
       </c>
       <c r="F5">
-        <v>0.1853105782409196</v>
+        <v>0.1849365711891532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>EU-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>European Union (27)</t>
         </is>
       </c>
       <c r="C6">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D6">
-        <v>0.2423090114057944</v>
+        <v>0.2831595469245586</v>
       </c>
       <c r="E6">
-        <v>0.1984354346204413</v>
+        <v>0.1944890342830665</v>
       </c>
       <c r="F6">
-        <v>0.2097229398979487</v>
+        <v>0.1746334176285843</v>
       </c>
     </row>
     <row r="7">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="C7">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D7">
-        <v>0.2486957028158932</v>
+        <v>0.2423090114057944</v>
       </c>
       <c r="E7">
-        <v>0.2020009761569212</v>
+        <v>0.1984354346204413</v>
       </c>
       <c r="F7">
-        <v>0.2136867806898769</v>
+        <v>0.2097229398979487</v>
       </c>
     </row>
     <row r="8">
@@ -548,16 +548,16 @@
         </is>
       </c>
       <c r="C8">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D8">
-        <v>0.351956876759915</v>
+        <v>0.2486957028158932</v>
       </c>
       <c r="E8">
-        <v>0.2655962161339128</v>
+        <v>0.2020009761569212</v>
       </c>
       <c r="F8">
-        <v>0.2676799879746152</v>
+        <v>0.2136867806898769</v>
       </c>
     </row>
     <row r="9">
@@ -572,64 +572,64 @@
         </is>
       </c>
       <c r="C9">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D9">
-        <v>0.3688989076857881</v>
+        <v>0.351956876759915</v>
       </c>
       <c r="E9">
-        <v>0.2679869854450537</v>
+        <v>0.2655962161339128</v>
       </c>
       <c r="F9">
-        <v>0.2358985713686357</v>
+        <v>0.2676799879746152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C10">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D10">
-        <v>0.2352243321905983</v>
+        <v>0.3688989076857881</v>
       </c>
       <c r="E10">
-        <v>0.2218676546446054</v>
+        <v>0.2679869854450537</v>
       </c>
       <c r="F10">
-        <v>0.2409928452675882</v>
+        <v>0.2358985713686357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C11">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D11">
-        <v>0.2403864401380785</v>
+        <v>0.3566184028754969</v>
       </c>
       <c r="E11">
-        <v>0.2565422694033339</v>
+        <v>0.2525316961101947</v>
       </c>
       <c r="F11">
-        <v>0.2327279214912057</v>
+        <v>0.2317264275449833</v>
       </c>
     </row>
     <row r="12">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="C12">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D12">
-        <v>0.3583851434412494</v>
+        <v>0.2352243321905983</v>
       </c>
       <c r="E12">
-        <v>0.3333820486532476</v>
+        <v>0.2218676546446054</v>
       </c>
       <c r="F12">
-        <v>0.3193286681862236</v>
+        <v>0.2409928452675882</v>
       </c>
     </row>
     <row r="13">
@@ -668,88 +668,88 @@
         </is>
       </c>
       <c r="C13">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D13">
-        <v>0.4142372354558559</v>
+        <v>0.2403864401380785</v>
       </c>
       <c r="E13">
-        <v>0.3997793114443218</v>
+        <v>0.2565422694033339</v>
       </c>
       <c r="F13">
-        <v>0.3665709182778464</v>
+        <v>0.2327279214912057</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C14">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D14">
-        <v>0.009835715279201128</v>
+        <v>0.3583851434412494</v>
       </c>
       <c r="E14">
-        <v>0.01201084591340422</v>
+        <v>0.3333820486532476</v>
       </c>
       <c r="F14">
-        <v>0.004787627447973</v>
+        <v>0.3193286681862236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C15">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D15">
-        <v>0.01163513836404784</v>
+        <v>0.4142372354558559</v>
       </c>
       <c r="E15">
-        <v>0.012904503918494</v>
+        <v>0.3997793114443218</v>
       </c>
       <c r="F15">
-        <v>0.007823205445037432</v>
+        <v>0.3665709182778464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C16">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D16">
-        <v>0.04015464812704558</v>
+        <v>0.336079179231815</v>
       </c>
       <c r="E16">
-        <v>0.02319424493280513</v>
+        <v>0.3731587550897285</v>
       </c>
       <c r="F16">
-        <v>0.01749504387027828</v>
+        <v>0.3227675956648166</v>
       </c>
     </row>
     <row r="17">
@@ -764,2320 +764,2992 @@
         </is>
       </c>
       <c r="C17">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D17">
-        <v>0.088616870369225</v>
+        <v>0.009835715279201128</v>
       </c>
       <c r="E17">
-        <v>0.04363511767177093</v>
+        <v>0.01201084591340422</v>
       </c>
       <c r="F17">
-        <v>0.03513590498447255</v>
+        <v>0.004787627447973</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C18">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D18">
-        <v>0.02908053008386747</v>
+        <v>0.01163513836404784</v>
       </c>
       <c r="E18">
-        <v>0.01413208002314159</v>
+        <v>0.012904503918494</v>
       </c>
       <c r="F18">
-        <v>0.01174947861705337</v>
+        <v>0.007823205445037432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C19">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D19">
-        <v>0.03742187891975829</v>
+        <v>0.04015464812704558</v>
       </c>
       <c r="E19">
-        <v>0.01299645237662187</v>
+        <v>0.02319424493280513</v>
       </c>
       <c r="F19">
-        <v>0.01460198627090464</v>
+        <v>0.01749504387027828</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D20">
-        <v>0.09522559259670234</v>
+        <v>0.088616870369225</v>
       </c>
       <c r="E20">
-        <v>0.04907635494911494</v>
+        <v>0.04363511767177093</v>
       </c>
       <c r="F20">
-        <v>0.03388218808084128</v>
+        <v>0.03513590498447255</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D21">
-        <v>0.1586065096311947</v>
+        <v>0.05983177925575649</v>
       </c>
       <c r="E21">
-        <v>0.08502140225516527</v>
+        <v>0.03726048650429367</v>
       </c>
       <c r="F21">
-        <v>0.06332368308098893</v>
+        <v>0.02132590301333792</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C22">
         <v>2018</v>
       </c>
       <c r="D22">
-        <v>0.1335660408602174</v>
+        <v>0.02908053008386747</v>
       </c>
       <c r="E22">
-        <v>0.08435869167431297</v>
+        <v>0.01413208002314159</v>
       </c>
       <c r="F22">
-        <v>0.07299204374835934</v>
+        <v>0.01174947861705337</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C23">
         <v>2019</v>
       </c>
       <c r="D23">
-        <v>0.1386055053094394</v>
+        <v>0.03742187891975829</v>
       </c>
       <c r="E23">
-        <v>0.08801126940481023</v>
+        <v>0.01299645237662187</v>
       </c>
       <c r="F23">
-        <v>0.0832877446420346</v>
+        <v>0.01460198627090464</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C24">
         <v>2020</v>
       </c>
       <c r="D24">
-        <v>0.1977137665805126</v>
+        <v>0.09522559259670234</v>
       </c>
       <c r="E24">
-        <v>0.1053805532678644</v>
+        <v>0.04907635494911494</v>
       </c>
       <c r="F24">
-        <v>0.1005871069876922</v>
+        <v>0.03388218808084128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C25">
         <v>2021</v>
       </c>
       <c r="D25">
-        <v>0.2132557235361023</v>
+        <v>0.1586065096311947</v>
       </c>
       <c r="E25">
-        <v>0.1278195705727536</v>
+        <v>0.08502140225516527</v>
       </c>
       <c r="F25">
-        <v>0.1008370163522204</v>
+        <v>0.06332368308098893</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C26">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D26">
-        <v>0.1428717318303263</v>
+        <v>0.1326582410144858</v>
       </c>
       <c r="E26">
-        <v>0.1081590324355284</v>
+        <v>0.07126292394452353</v>
       </c>
       <c r="F26">
-        <v>0.09735558937950507</v>
+        <v>0.07284361478812997</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C27">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D27">
-        <v>0.1531678473324625</v>
+        <v>0.1335660408602174</v>
       </c>
       <c r="E27">
-        <v>0.1174680794715389</v>
+        <v>0.08435869167431297</v>
       </c>
       <c r="F27">
-        <v>0.1052489220195031</v>
+        <v>0.07299204374835934</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C28">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D28">
-        <v>0.2549149185606783</v>
+        <v>0.1386055053094394</v>
       </c>
       <c r="E28">
-        <v>0.1880653968119378</v>
+        <v>0.08801126940481023</v>
       </c>
       <c r="F28">
-        <v>0.1614391316055249</v>
+        <v>0.0832877446420346</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C29">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D29">
-        <v>0.3081957435831879</v>
+        <v>0.1977137665805126</v>
       </c>
       <c r="E29">
-        <v>0.2177850360136407</v>
+        <v>0.1053805532678644</v>
       </c>
       <c r="F29">
-        <v>0.1924199366018197</v>
+        <v>0.1005871069876922</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C30">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D30">
-        <v>0.3175373559137379</v>
+        <v>0.2132557235361023</v>
       </c>
       <c r="E30">
-        <v>0.2793128555339531</v>
+        <v>0.1278195705727536</v>
       </c>
       <c r="F30">
-        <v>0.2382967028254426</v>
+        <v>0.1008370163522204</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C31">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D31">
-        <v>0.3345087739908879</v>
+        <v>0.2432648361480516</v>
       </c>
       <c r="E31">
-        <v>0.2896326489136521</v>
+        <v>0.1300043003314943</v>
       </c>
       <c r="F31">
-        <v>0.2407673424167591</v>
+        <v>0.1149781043178546</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C32">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D32">
-        <v>0.4284561321652901</v>
+        <v>0.1428717318303263</v>
       </c>
       <c r="E32">
-        <v>0.3533821394596869</v>
+        <v>0.1081590324355284</v>
       </c>
       <c r="F32">
-        <v>0.2824232458963149</v>
+        <v>0.09735558937950507</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C33">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D33">
-        <v>0.4394297045011645</v>
+        <v>0.1531678473324625</v>
       </c>
       <c r="E33">
-        <v>0.3626238347965305</v>
+        <v>0.1174680794715389</v>
       </c>
       <c r="F33">
-        <v>0.288662995133141</v>
+        <v>0.1052489220195031</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C34">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D34">
-        <v>0.2289196598101753</v>
+        <v>0.2549149185606783</v>
       </c>
       <c r="E34">
-        <v>0.1522001687845213</v>
+        <v>0.1880653968119378</v>
       </c>
       <c r="F34">
-        <v>0.1635672699358887</v>
+        <v>0.1614391316055249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C35">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D35">
-        <v>0.2264034416374457</v>
+        <v>0.3089493728390399</v>
       </c>
       <c r="E35">
-        <v>0.1637026715425639</v>
+        <v>0.2202196731774184</v>
       </c>
       <c r="F35">
-        <v>0.1671067033341851</v>
+        <v>0.1903738392153783</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C36">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D36">
-        <v>0.2785353937162903</v>
+        <v>0.2989927482164055</v>
       </c>
       <c r="E36">
-        <v>0.1688006017482645</v>
+        <v>0.2161847147595877</v>
       </c>
       <c r="F36">
-        <v>0.1922167992832639</v>
+        <v>0.1843983012977559</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C37">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D37">
-        <v>0.3059329846235933</v>
+        <v>0.3175373559137379</v>
       </c>
       <c r="E37">
-        <v>0.1796887965258169</v>
+        <v>0.2793128555339531</v>
       </c>
       <c r="F37">
-        <v>0.2359588293666896</v>
+        <v>0.2382967028254426</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C38">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D38">
-        <v>0.06218296402283988</v>
+        <v>0.3345087739908879</v>
       </c>
       <c r="E38">
-        <v>0.05481828058492176</v>
+        <v>0.2896326489136521</v>
       </c>
       <c r="F38">
-        <v>0.03607570111485187</v>
+        <v>0.2407673424167591</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C39">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D39">
-        <v>0.05643020649214487</v>
+        <v>0.4284561321652901</v>
       </c>
       <c r="E39">
-        <v>0.06228572564156479</v>
+        <v>0.3533821394596869</v>
       </c>
       <c r="F39">
-        <v>0.03857982311859761</v>
+        <v>0.2824232458963149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C40">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D40">
-        <v>0.1195952850278149</v>
+        <v>0.4394297045011645</v>
       </c>
       <c r="E40">
-        <v>0.1271920576945776</v>
+        <v>0.3626238347965305</v>
       </c>
       <c r="F40">
-        <v>0.05873419062084747</v>
+        <v>0.288662995133141</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C41">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D41">
-        <v>0.1858041616183242</v>
+        <v>0.4019796563033143</v>
       </c>
       <c r="E41">
-        <v>0.1695722934596464</v>
+        <v>0.338149356755669</v>
       </c>
       <c r="F41">
-        <v>0.07350834851275639</v>
+        <v>0.2748394450502514</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C42">
         <v>2018</v>
       </c>
       <c r="D42">
-        <v>0.07895655361350025</v>
+        <v>0.2289196598101753</v>
       </c>
       <c r="E42">
-        <v>0.06842941351953208</v>
+        <v>0.1522001687845213</v>
       </c>
       <c r="F42">
-        <v>0.07269850655662709</v>
+        <v>0.1635672699358887</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C43">
         <v>2019</v>
       </c>
       <c r="D43">
-        <v>0.08831062163193681</v>
+        <v>0.2264034416374457</v>
       </c>
       <c r="E43">
-        <v>0.07757156166635602</v>
+        <v>0.1637026715425639</v>
       </c>
       <c r="F43">
-        <v>0.07751958292327235</v>
+        <v>0.1671067033341851</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C44">
         <v>2020</v>
       </c>
       <c r="D44">
-        <v>0.1816222633881625</v>
+        <v>0.2785353937162903</v>
       </c>
       <c r="E44">
-        <v>0.1242021223506323</v>
+        <v>0.1688006017482645</v>
       </c>
       <c r="F44">
-        <v>0.09785921669628692</v>
+        <v>0.1922167992832639</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C45">
         <v>2021</v>
       </c>
       <c r="D45">
-        <v>0.1838553592713928</v>
+        <v>0.3059329846235933</v>
       </c>
       <c r="E45">
-        <v>0.1239177104713057</v>
+        <v>0.1796887965258169</v>
       </c>
       <c r="F45">
-        <v>0.1059336448336042</v>
+        <v>0.2359588293666896</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C46">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D46">
-        <v>0.3734543995396724</v>
+        <v>0.2993015205693115</v>
       </c>
       <c r="E46">
-        <v>0.255884273522588</v>
+        <v>0.193313415232378</v>
       </c>
       <c r="F46">
-        <v>0.26897094845366</v>
+        <v>0.2095222919952016</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C47">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D47">
-        <v>0.3825772353052134</v>
+        <v>0.06218296402283988</v>
       </c>
       <c r="E47">
-        <v>0.2608843785353477</v>
+        <v>0.05481828058492176</v>
       </c>
       <c r="F47">
-        <v>0.2905360199628075</v>
+        <v>0.03607570111485187</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C48">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D48">
-        <v>0.4769630639363451</v>
+        <v>0.05643020649214487</v>
       </c>
       <c r="E48">
-        <v>0.3349758044114832</v>
+        <v>0.06228572564156479</v>
       </c>
       <c r="F48">
-        <v>0.3287938610896018</v>
+        <v>0.03857982311859761</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C49">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D49">
-        <v>0.5015566533267791</v>
+        <v>0.1195952850278149</v>
       </c>
       <c r="E49">
-        <v>0.3599580983327497</v>
+        <v>0.1271920576945776</v>
       </c>
       <c r="F49">
-        <v>0.3357034838446142</v>
+        <v>0.05873419062084747</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C50">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D50">
-        <v>0.2326732071696532</v>
+        <v>0.1858041616183242</v>
       </c>
       <c r="E50">
-        <v>0.1901728116841397</v>
+        <v>0.1695722934596464</v>
       </c>
       <c r="F50">
-        <v>0.1918931441896649</v>
+        <v>0.07350834851275639</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C51">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D51">
-        <v>0.2547221649898855</v>
+        <v>0.1434860548690565</v>
       </c>
       <c r="E51">
-        <v>0.2171300846011617</v>
+        <v>0.09227462489900651</v>
       </c>
       <c r="F51">
-        <v>0.2071336993555982</v>
+        <v>0.04447405225340785</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C52">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D52">
-        <v>0.3388225511414</v>
+        <v>0.07895655361350025</v>
       </c>
       <c r="E52">
-        <v>0.2741168084199625</v>
+        <v>0.06842941351953208</v>
       </c>
       <c r="F52">
-        <v>0.24807625579518</v>
+        <v>0.07269850655662709</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C53">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D53">
-        <v>0.4082147561679998</v>
+        <v>0.08831062163193681</v>
       </c>
       <c r="E53">
-        <v>0.319306090133625</v>
+        <v>0.07757156166635602</v>
       </c>
       <c r="F53">
-        <v>0.2792274615054097</v>
+        <v>0.07751958292327235</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C54">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D54">
-        <v>0.1208573405343193</v>
+        <v>0.1816222633881625</v>
       </c>
       <c r="E54">
-        <v>0.055150590880417</v>
+        <v>0.1242021223506323</v>
       </c>
       <c r="F54">
-        <v>0.03123777693201952</v>
+        <v>0.09785921669628692</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C55">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D55">
-        <v>0.1324520181160705</v>
+        <v>0.1838553592713928</v>
       </c>
       <c r="E55">
-        <v>0.05413131263657681</v>
+        <v>0.1239177104713057</v>
       </c>
       <c r="F55">
-        <v>0.03042910752784695</v>
+        <v>0.1059336448336042</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C56">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D56">
-        <v>0.2059044199439948</v>
+        <v>0.1654840436362005</v>
       </c>
       <c r="E56">
-        <v>0.09095966670335302</v>
+        <v>0.1137218739270228</v>
       </c>
       <c r="F56">
-        <v>0.04379398753305269</v>
+        <v>0.101963315370899</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C57">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D57">
-        <v>0.2497989262007047</v>
+        <v>0.3734543995396724</v>
       </c>
       <c r="E57">
-        <v>0.1207560422060832</v>
+        <v>0.255884273522588</v>
       </c>
       <c r="F57">
-        <v>0.04645087357946048</v>
+        <v>0.26897094845366</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C58">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D58">
-        <v>0.1117200642309721</v>
+        <v>0.3825772353052134</v>
       </c>
       <c r="E58">
-        <v>0.04573573443979385</v>
+        <v>0.2608843785353477</v>
       </c>
       <c r="F58">
-        <v>0.0274659721734176</v>
+        <v>0.2905360199628075</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C59">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D59">
-        <v>0.09269089890107578</v>
+        <v>0.4769630639363451</v>
       </c>
       <c r="E59">
-        <v>0.03223111671884789</v>
+        <v>0.3349758044114832</v>
       </c>
       <c r="F59">
-        <v>0.01546242839400443</v>
+        <v>0.3287938610896018</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C60">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D60">
-        <v>0.2181973991130147</v>
+        <v>0.5015566533267791</v>
       </c>
       <c r="E60">
-        <v>0.07986534952806841</v>
+        <v>0.3599580983327497</v>
       </c>
       <c r="F60">
-        <v>0.03458912325278949</v>
+        <v>0.3357034838446142</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C61">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D61">
-        <v>0.2721489520296428</v>
+        <v>0.4964243076112179</v>
       </c>
       <c r="E61">
-        <v>0.08760237102756741</v>
+        <v>0.3513673317745538</v>
       </c>
       <c r="F61">
-        <v>0.04544320339188609</v>
+        <v>0.315086718629119</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C62">
         <v>2018</v>
       </c>
       <c r="D62">
-        <v>0.2105300392228135</v>
+        <v>0.2326732071696532</v>
       </c>
       <c r="E62">
-        <v>0.1537492823592005</v>
+        <v>0.1901728116841397</v>
       </c>
       <c r="F62">
-        <v>0.21154832110317</v>
+        <v>0.1918931441896649</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C63">
         <v>2019</v>
       </c>
       <c r="D63">
-        <v>0.2159725894058084</v>
+        <v>0.2547221649898855</v>
       </c>
       <c r="E63">
-        <v>0.1607225204786708</v>
+        <v>0.2171300846011617</v>
       </c>
       <c r="F63">
-        <v>0.2126748274625057</v>
+        <v>0.2071336993555982</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C64">
         <v>2020</v>
       </c>
       <c r="D64">
-        <v>0.3855734180713416</v>
+        <v>0.3388225511414</v>
       </c>
       <c r="E64">
-        <v>0.2805469177380851</v>
+        <v>0.2741168084199625</v>
       </c>
       <c r="F64">
-        <v>0.2869484067170895</v>
+        <v>0.24807625579518</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C65">
         <v>2021</v>
       </c>
       <c r="D65">
-        <v>0.5106511849924267</v>
+        <v>0.4082149009294293</v>
       </c>
       <c r="E65">
-        <v>0.3256260884172522</v>
+        <v>0.3193061572191835</v>
       </c>
       <c r="F65">
-        <v>0.3306469679055236</v>
+        <v>0.279227505179833</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C66">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D66">
-        <v>0.06308675269840353</v>
+        <v>0.3961055899070137</v>
       </c>
       <c r="E66">
-        <v>0.04201379770946268</v>
+        <v>0.3087550085480361</v>
       </c>
       <c r="F66">
-        <v>0.04131783439974486</v>
+        <v>0.2837840510320626</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C67">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D67">
-        <v>0.06393866157605474</v>
+        <v>0.1208573405343193</v>
       </c>
       <c r="E67">
-        <v>0.04099931225779636</v>
+        <v>0.055150590880417</v>
       </c>
       <c r="F67">
-        <v>0.03633839780753815</v>
+        <v>0.03123777693201952</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C68">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D68">
-        <v>0.1988259958226586</v>
+        <v>0.1324520181160705</v>
       </c>
       <c r="E68">
-        <v>0.1135599788920934</v>
+        <v>0.05413131263657681</v>
       </c>
       <c r="F68">
-        <v>0.09589854675305212</v>
+        <v>0.03042910752784695</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C69">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D69">
-        <v>0.2246361706119258</v>
+        <v>0.2059044199439948</v>
       </c>
       <c r="E69">
-        <v>0.1148810651891427</v>
+        <v>0.09095966670335302</v>
       </c>
       <c r="F69">
-        <v>0.08838526732577356</v>
+        <v>0.04379398753305269</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C70">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D70">
-        <v>0.0535396376307262</v>
+        <v>0.2497989262007047</v>
       </c>
       <c r="E70">
-        <v>0.02431948828293358</v>
+        <v>0.1207560422060832</v>
       </c>
       <c r="F70">
-        <v>0.05043956883841352</v>
+        <v>0.04645087357946048</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C71">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D71">
-        <v>0.04951561495659516</v>
+        <v>0.2300663380390124</v>
       </c>
       <c r="E71">
-        <v>0.0208402705948671</v>
+        <v>0.09984354845219015</v>
       </c>
       <c r="F71">
-        <v>0.05049985710948859</v>
+        <v>0.05192650993176179</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C72">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D72">
-        <v>0.1070112167658541</v>
+        <v>0.1117200642309721</v>
       </c>
       <c r="E72">
-        <v>0.04101016215108499</v>
+        <v>0.04573573443979385</v>
       </c>
       <c r="F72">
-        <v>0.06870109028766036</v>
+        <v>0.0274659721734176</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C73">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D73">
-        <v>0.1959784619582417</v>
+        <v>0.09269089890107578</v>
       </c>
       <c r="E73">
-        <v>0.06583634674634867</v>
+        <v>0.03223111671884789</v>
       </c>
       <c r="F73">
-        <v>0.09811797388129814</v>
+        <v>0.01546242839400443</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C74">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D74">
-        <v>0.3970191735929613</v>
+        <v>0.2181973991130147</v>
       </c>
       <c r="E74">
-        <v>0.2674967352364031</v>
+        <v>0.07986534952806841</v>
       </c>
       <c r="F74">
-        <v>0.2917428964452651</v>
+        <v>0.03458912325278949</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C75">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D75">
-        <v>0.4125372236675539</v>
+        <v>0.2721489520296428</v>
       </c>
       <c r="E75">
-        <v>0.3067888656760729</v>
+        <v>0.08760237102756741</v>
       </c>
       <c r="F75">
-        <v>0.3105406025822602</v>
+        <v>0.04544320339188609</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C76">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D76">
-        <v>0.6265486264537784</v>
+        <v>0.227414772253184</v>
       </c>
       <c r="E76">
-        <v>0.4126001336793723</v>
+        <v>0.06468582859030267</v>
       </c>
       <c r="F76">
-        <v>0.4549755682163654</v>
+        <v>0.03230950029389697</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C77">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D77">
-        <v>0.6799016728968914</v>
+        <v>0.2105300392228135</v>
       </c>
       <c r="E77">
-        <v>0.3852575213886463</v>
+        <v>0.1537492823592005</v>
       </c>
       <c r="F77">
-        <v>0.3975734487294512</v>
+        <v>0.21154832110317</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C78">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D78">
-        <v>0.03746916656641886</v>
+        <v>0.2159725894058084</v>
       </c>
       <c r="E78">
-        <v>0.06991267712206013</v>
+        <v>0.1607225204786708</v>
       </c>
       <c r="F78">
-        <v>0.04416262555956841</v>
+        <v>0.2126748274625057</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C79">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D79">
-        <v>0.05711778316352059</v>
+        <v>0.3855734180713416</v>
       </c>
       <c r="E79">
-        <v>0.0322494822672566</v>
+        <v>0.2805469177380851</v>
       </c>
       <c r="F79">
-        <v>0.04150260274176692</v>
+        <v>0.2869484067170895</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C80">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D80">
-        <v>0.05121466778410236</v>
+        <v>0.5106511849924267</v>
       </c>
       <c r="E80">
-        <v>0.05692698408496864</v>
+        <v>0.3256260884172522</v>
       </c>
       <c r="F80">
-        <v>0.06349148086684968</v>
+        <v>0.3306469679055236</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C81">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D81">
-        <v>0.1638515883899345</v>
+        <v>0.4433184300933837</v>
       </c>
       <c r="E81">
-        <v>0.1463528206453931</v>
+        <v>0.3239797296036456</v>
       </c>
       <c r="F81">
-        <v>0.0905767964830385</v>
+        <v>0.3156909175000898</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C82">
         <v>2018</v>
       </c>
       <c r="D82">
-        <v>0.093131538215331</v>
+        <v>0.06308675269840353</v>
       </c>
       <c r="E82">
-        <v>0.1029219729398101</v>
+        <v>0.04201379770946268</v>
       </c>
       <c r="F82">
-        <v>0.09796948967995255</v>
+        <v>0.04131783439974486</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C83">
         <v>2019</v>
       </c>
       <c r="D83">
-        <v>0.1294476494615608</v>
+        <v>0.06393866157605474</v>
       </c>
       <c r="E83">
-        <v>0.101205227595795</v>
+        <v>0.04099931225779636</v>
       </c>
       <c r="F83">
-        <v>0.1711433086321391</v>
+        <v>0.03633839780753815</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C84">
         <v>2020</v>
       </c>
       <c r="D84">
-        <v>0.2784789666491428</v>
+        <v>0.1988259958226586</v>
       </c>
       <c r="E84">
-        <v>0.2397059500100409</v>
+        <v>0.1135599788920934</v>
       </c>
       <c r="F84">
-        <v>0.2268865062709899</v>
+        <v>0.09589854675305212</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C85">
         <v>2021</v>
       </c>
       <c r="D85">
-        <v>0.2944112090436377</v>
+        <v>0.2246361706119258</v>
       </c>
       <c r="E85">
-        <v>0.2948365135939146</v>
+        <v>0.1148810651891427</v>
       </c>
       <c r="F85">
-        <v>0.2167619319784066</v>
+        <v>0.08838526732577356</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C86">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D86">
-        <v>0.3840410974721062</v>
+        <v>0.1901295407303427</v>
       </c>
       <c r="E86">
-        <v>0.3283373203400185</v>
+        <v>0.0911643939858832</v>
       </c>
       <c r="F86">
-        <v>0.3040270017923667</v>
+        <v>0.07027069157569693</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C87">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D87">
-        <v>0.3939445847167228</v>
+        <v>0.0535396376307262</v>
       </c>
       <c r="E87">
-        <v>0.3483556465162491</v>
+        <v>0.02431948828293358</v>
       </c>
       <c r="F87">
-        <v>0.3187326424197497</v>
+        <v>0.05043956883841352</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C88">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D88">
-        <v>0.4421828041179371</v>
+        <v>0.04951561495659516</v>
       </c>
       <c r="E88">
-        <v>0.3593153797878967</v>
+        <v>0.0208402705948671</v>
       </c>
       <c r="F88">
-        <v>0.3233897667553579</v>
+        <v>0.05049985710948859</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C89">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D89">
-        <v>0.5746777185810129</v>
+        <v>0.1070112167658541</v>
       </c>
       <c r="E89">
-        <v>0.4976026174886894</v>
+        <v>0.04101016215108499</v>
       </c>
       <c r="F89">
-        <v>0.4800979126184607</v>
+        <v>0.06870109028766036</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C90">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D90">
-        <v>0.1648471489355202</v>
+        <v>0.1959784619582417</v>
       </c>
       <c r="E90">
-        <v>0.1093390150242238</v>
+        <v>0.06583634674634867</v>
       </c>
       <c r="F90">
-        <v>0.1236619706732907</v>
+        <v>0.09811797388129814</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C91">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D91">
-        <v>0.1723682840490308</v>
+        <v>0.1551651096471841</v>
       </c>
       <c r="E91">
-        <v>0.1143979543396779</v>
+        <v>0.05927742166491093</v>
       </c>
       <c r="F91">
-        <v>0.1243007952679517</v>
+        <v>0.0781061443908095</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C92">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D92">
-        <v>0.2437748299056605</v>
+        <v>0.3970191735929613</v>
       </c>
       <c r="E92">
-        <v>0.1424107869204397</v>
+        <v>0.2674967352364031</v>
       </c>
       <c r="F92">
-        <v>0.1412689847363661</v>
+        <v>0.2917428964452651</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C93">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D93">
-        <v>0.2126189096384962</v>
+        <v>0.4125372236675539</v>
       </c>
       <c r="E93">
-        <v>0.1166335040908435</v>
+        <v>0.3067888656760729</v>
       </c>
       <c r="F93">
-        <v>0.1219191444808507</v>
+        <v>0.3105406025822602</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C94">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D94">
-        <v>0.1826812615553433</v>
+        <v>0.6265486264537784</v>
       </c>
       <c r="E94">
-        <v>0.1300602616009079</v>
+        <v>0.4126001336793723</v>
       </c>
       <c r="F94">
-        <v>0.1017922830169405</v>
+        <v>0.4549755682163654</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C95">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D95">
-        <v>0.1959152409906546</v>
+        <v>0.6799016728968914</v>
       </c>
       <c r="E95">
-        <v>0.1375248517660604</v>
+        <v>0.3852575213886463</v>
       </c>
       <c r="F95">
-        <v>0.1020337977999067</v>
+        <v>0.3975734487294512</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C96">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D96">
-        <v>0.3031781398407516</v>
+        <v>0.6088360983121143</v>
       </c>
       <c r="E96">
-        <v>0.1889067828022698</v>
+        <v>0.3300310725008906</v>
       </c>
       <c r="F96">
-        <v>0.1202940242756716</v>
+        <v>0.3599670354430931</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C97">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D97">
-        <v>0.3414653146023096</v>
+        <v>0.03746916656641886</v>
       </c>
       <c r="E97">
-        <v>0.2230813654376138</v>
+        <v>0.06991267712206013</v>
       </c>
       <c r="F97">
-        <v>0.1484673175496413</v>
+        <v>0.04416262555956841</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C98">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D98">
-        <v>0.008118594006554108</v>
+        <v>0.05711778316352059</v>
       </c>
       <c r="E98">
-        <v>0.006959386362033018</v>
+        <v>0.0322494822672566</v>
       </c>
       <c r="F98">
-        <v>0.007949926847753896</v>
+        <v>0.04150260274176692</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C99">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D99">
-        <v>0.01336326156894325</v>
+        <v>0.05121466778410236</v>
       </c>
       <c r="E99">
-        <v>0.01468806412006064</v>
+        <v>0.05692698408496864</v>
       </c>
       <c r="F99">
-        <v>0.01500325135113021</v>
+        <v>0.06349148086684968</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C100">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D100">
-        <v>0.05942628034238435</v>
+        <v>0.1638515883899345</v>
       </c>
       <c r="E100">
-        <v>0.02392854265626638</v>
+        <v>0.1463528206453931</v>
       </c>
       <c r="F100">
-        <v>0.01273222779672183</v>
+        <v>0.0905767964830385</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C101">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D101">
-        <v>0.1153288490128734</v>
+        <v>0.1269746095620591</v>
       </c>
       <c r="E101">
-        <v>0.04161793348529567</v>
+        <v>0.1276660673564271</v>
       </c>
       <c r="F101">
-        <v>0.03267099948641379</v>
+        <v>0.09037118858181414</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C102">
         <v>2018</v>
       </c>
       <c r="D102">
-        <v>0.3997298278524711</v>
+        <v>0.093131538215331</v>
       </c>
       <c r="E102">
-        <v>0.3313327571182463</v>
+        <v>0.1029219729398101</v>
       </c>
       <c r="F102">
-        <v>0.3122836143924278</v>
+        <v>0.09796948967995255</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C103">
         <v>2019</v>
       </c>
       <c r="D103">
-        <v>0.4312058892955101</v>
+        <v>0.1294476494615608</v>
       </c>
       <c r="E103">
-        <v>0.3533489999231397</v>
+        <v>0.101205227595795</v>
       </c>
       <c r="F103">
-        <v>0.3324996695254816</v>
+        <v>0.1711433086321391</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C104">
         <v>2020</v>
       </c>
       <c r="D104">
-        <v>0.3782906591101345</v>
+        <v>0.2784789666491428</v>
       </c>
       <c r="E104">
-        <v>0.3196244104484452</v>
+        <v>0.2397059500100409</v>
       </c>
       <c r="F104">
-        <v>0.2900916117617501</v>
+        <v>0.2268865062709899</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C105">
         <v>2021</v>
       </c>
       <c r="D105">
-        <v>0.5392835650974134</v>
+        <v>0.2944112090436377</v>
       </c>
       <c r="E105">
-        <v>0.4453253721355179</v>
+        <v>0.2948365135939146</v>
       </c>
       <c r="F105">
-        <v>0.3887850847299245</v>
+        <v>0.2167619319784066</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C106">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D106">
-        <v>0.2994345655355513</v>
+        <v>0.2940983973411077</v>
       </c>
       <c r="E106">
-        <v>0.1666334720207154</v>
+        <v>0.2702032099964818</v>
       </c>
       <c r="F106">
-        <v>0.1353496152547197</v>
+        <v>0.2350643706846929</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C107">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D107">
-        <v>0.3056008377986015</v>
+        <v>0.3840410974721062</v>
       </c>
       <c r="E107">
-        <v>0.1661729007994944</v>
+        <v>0.3283373203400185</v>
       </c>
       <c r="F107">
-        <v>0.129985337586651</v>
+        <v>0.3040270017923667</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C108">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D108">
-        <v>0.3008970811855221</v>
+        <v>0.3939445847167228</v>
       </c>
       <c r="E108">
-        <v>0.2087678234454551</v>
+        <v>0.3483556465162491</v>
       </c>
       <c r="F108">
-        <v>0.1493728149484536</v>
+        <v>0.3187326424197497</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C109">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D109">
-        <v>0.3177851884496252</v>
+        <v>0.4421828041179371</v>
       </c>
       <c r="E109">
-        <v>0.2356032287695009</v>
+        <v>0.3593153797878967</v>
       </c>
       <c r="F109">
-        <v>0.185094811406243</v>
+        <v>0.3233897667553579</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C110">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D110">
-        <v>0.1674455942011356</v>
+        <v>0.5746777186064441</v>
       </c>
       <c r="E110">
-        <v>0.07942520096347723</v>
+        <v>0.4976026175203849</v>
       </c>
       <c r="F110">
-        <v>0.06325117119765072</v>
+        <v>0.4800979126184607</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C111">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D111">
-        <v>0.1730921635854231</v>
+        <v>0.5636116342768667</v>
       </c>
       <c r="E111">
-        <v>0.08446278499160985</v>
+        <v>0.4907378275369613</v>
       </c>
       <c r="F111">
-        <v>0.06550233115822846</v>
+        <v>0.4724030164202179</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C112">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D112">
-        <v>0.2085084174318742</v>
+        <v>0.1648471489355202</v>
       </c>
       <c r="E112">
-        <v>0.1019371307962464</v>
+        <v>0.1093390150242238</v>
       </c>
       <c r="F112">
-        <v>0.08251541216023374</v>
+        <v>0.1236619706732907</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>2019</v>
+      </c>
+      <c r="D113">
+        <v>0.1723682840490308</v>
+      </c>
+      <c r="E113">
+        <v>0.1143979543396779</v>
+      </c>
+      <c r="F113">
+        <v>0.1243007952679517</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>2020</v>
+      </c>
+      <c r="D114">
+        <v>0.2437748299056605</v>
+      </c>
+      <c r="E114">
+        <v>0.1424107869204397</v>
+      </c>
+      <c r="F114">
+        <v>0.1412689847363661</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>2021</v>
+      </c>
+      <c r="D115">
+        <v>0.2126189096384962</v>
+      </c>
+      <c r="E115">
+        <v>0.1166335040908435</v>
+      </c>
+      <c r="F115">
+        <v>0.1219191444808507</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>2022</v>
+      </c>
+      <c r="D116">
+        <v>0.1701704627958224</v>
+      </c>
+      <c r="E116">
+        <v>0.09801277420902255</v>
+      </c>
+      <c r="F116">
+        <v>0.1041020692855924</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>2018</v>
+      </c>
+      <c r="D117">
+        <v>0.1826812615553433</v>
+      </c>
+      <c r="E117">
+        <v>0.1300602616009079</v>
+      </c>
+      <c r="F117">
+        <v>0.1017922830169405</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>2019</v>
+      </c>
+      <c r="D118">
+        <v>0.1959152409906546</v>
+      </c>
+      <c r="E118">
+        <v>0.1375248517660604</v>
+      </c>
+      <c r="F118">
+        <v>0.1020337977999067</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>2020</v>
+      </c>
+      <c r="D119">
+        <v>0.2974600693281377</v>
+      </c>
+      <c r="E119">
+        <v>0.1866205729339532</v>
+      </c>
+      <c r="F119">
+        <v>0.1181230305368788</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>2021</v>
+      </c>
+      <c r="D120">
+        <v>0.3414653146023096</v>
+      </c>
+      <c r="E120">
+        <v>0.2230813654376138</v>
+      </c>
+      <c r="F120">
+        <v>0.1484673175496413</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>2022</v>
+      </c>
+      <c r="D121">
+        <v>0.253621964547528</v>
+      </c>
+      <c r="E121">
+        <v>0.1429241297474321</v>
+      </c>
+      <c r="F121">
+        <v>0.09872538389764436</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>2018</v>
+      </c>
+      <c r="D122">
+        <v>0.008118594006554108</v>
+      </c>
+      <c r="E122">
+        <v>0.006959386362033018</v>
+      </c>
+      <c r="F122">
+        <v>0.007949926847753896</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>2019</v>
+      </c>
+      <c r="D123">
+        <v>0.01336326156894325</v>
+      </c>
+      <c r="E123">
+        <v>0.01468806412006064</v>
+      </c>
+      <c r="F123">
+        <v>0.01500325135113021</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>2020</v>
+      </c>
+      <c r="D124">
+        <v>0.05942628034238435</v>
+      </c>
+      <c r="E124">
+        <v>0.02392854265626638</v>
+      </c>
+      <c r="F124">
+        <v>0.01273222779672183</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>2021</v>
+      </c>
+      <c r="D125">
+        <v>0.1153288490128734</v>
+      </c>
+      <c r="E125">
+        <v>0.04161793348529567</v>
+      </c>
+      <c r="F125">
+        <v>0.03267099948641379</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>2022</v>
+      </c>
+      <c r="D126">
+        <v>0.06800416083212285</v>
+      </c>
+      <c r="E126">
+        <v>0.03466317580126245</v>
+      </c>
+      <c r="F126">
+        <v>0.02298019662324854</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>2018</v>
+      </c>
+      <c r="D127">
+        <v>0.3997298278524711</v>
+      </c>
+      <c r="E127">
+        <v>0.3313327571182463</v>
+      </c>
+      <c r="F127">
+        <v>0.3122836143924278</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>2019</v>
+      </c>
+      <c r="D128">
+        <v>0.4312058892955101</v>
+      </c>
+      <c r="E128">
+        <v>0.3533489999231397</v>
+      </c>
+      <c r="F128">
+        <v>0.3324996695254816</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>2020</v>
+      </c>
+      <c r="D129">
+        <v>0.3782906591101345</v>
+      </c>
+      <c r="E129">
+        <v>0.3196244104484452</v>
+      </c>
+      <c r="F129">
+        <v>0.2900916117617501</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>2021</v>
+      </c>
+      <c r="D130">
+        <v>0.5392835650974134</v>
+      </c>
+      <c r="E130">
+        <v>0.4453253721355179</v>
+      </c>
+      <c r="F130">
+        <v>0.3887850847299245</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>2022</v>
+      </c>
+      <c r="D131">
+        <v>0.5207364659166582</v>
+      </c>
+      <c r="E131">
+        <v>0.4281675733827129</v>
+      </c>
+      <c r="F131">
+        <v>0.3798297749995113</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>2018</v>
+      </c>
+      <c r="D132">
+        <v>0.2994345655355513</v>
+      </c>
+      <c r="E132">
+        <v>0.1666334720207154</v>
+      </c>
+      <c r="F132">
+        <v>0.1353496152547197</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>2019</v>
+      </c>
+      <c r="D133">
+        <v>0.3056008377986015</v>
+      </c>
+      <c r="E133">
+        <v>0.1661729007994944</v>
+      </c>
+      <c r="F133">
+        <v>0.129985337586651</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>2020</v>
+      </c>
+      <c r="D134">
+        <v>0.3008970811855221</v>
+      </c>
+      <c r="E134">
+        <v>0.2087678234454551</v>
+      </c>
+      <c r="F134">
+        <v>0.1493728149484536</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>2021</v>
+      </c>
+      <c r="D135">
+        <v>0.3177851884496252</v>
+      </c>
+      <c r="E135">
+        <v>0.2356032287695009</v>
+      </c>
+      <c r="F135">
+        <v>0.185094811406243</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>2022</v>
+      </c>
+      <c r="D136">
+        <v>0.3108426870827772</v>
+      </c>
+      <c r="E136">
+        <v>0.2296661647607636</v>
+      </c>
+      <c r="F136">
+        <v>0.1810735149394034</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
           <t>SK</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="C113">
+      <c r="C137">
+        <v>2018</v>
+      </c>
+      <c r="D137">
+        <v>0.1674455942011356</v>
+      </c>
+      <c r="E137">
+        <v>0.07942520096347723</v>
+      </c>
+      <c r="F137">
+        <v>0.06325117119765072</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>2019</v>
+      </c>
+      <c r="D138">
+        <v>0.1730921635854231</v>
+      </c>
+      <c r="E138">
+        <v>0.08446278499160985</v>
+      </c>
+      <c r="F138">
+        <v>0.06550233115822846</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>2020</v>
+      </c>
+      <c r="D139">
+        <v>0.2085084174318742</v>
+      </c>
+      <c r="E139">
+        <v>0.1019371307962464</v>
+      </c>
+      <c r="F139">
+        <v>0.08251541216023374</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C140">
         <v>2021</v>
       </c>
-      <c r="D113">
+      <c r="D140">
         <v>0.2361364823182294</v>
       </c>
-      <c r="E113">
+      <c r="E140">
         <v>0.1523160188602597</v>
       </c>
-      <c r="F113">
+      <c r="F140">
         <v>0.1036707634795117</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>2022</v>
+      </c>
+      <c r="D141">
+        <v>0.197393476545796</v>
+      </c>
+      <c r="E141">
+        <v>0.1373876999243518</v>
+      </c>
+      <c r="F141">
+        <v>0.08681176113271594</v>
       </c>
     </row>
   </sheetData>
